--- a/biology/Botanique/Aizoaceae/Aizoaceae.xlsx
+++ b/biology/Botanique/Aizoaceae/Aizoaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aizoaceae (Aizoacées), autrefois Ficoidaceae, regroupe de nombreuses plantes dicotylédones ; elle est principalement représentée dans les régions à climat sec d'Afrique australe. Selon Watson &amp; Dallwitz[Qui ?] elle comprend plus de mille espèces réparties en plus de 100 genres.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Aizoon dérivé du grec αείζωον / aeízoon, éternel, de  αεί / aei,
-toujours, et ζωόσ / zóos, vivant, pour qualifier une plante réputée pouvoir survivre dans presque toutes les conditions[1].
+toujours, et ζωόσ / zóos, vivant, pour qualifier une plante réputée pouvoir survivre dans presque toutes les conditions.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de sa première publication, en 1820, le protologue était le suivant« Aizoaceae Martinov, Tekhno-Bot. Slovar: 15 (1820) (pro « Aizoonides ») [nom. cons.] »[incompréhensible].
 Ce groupe des Aizoaceae succulentes constituait autrefois une famille propre, les Mesembryanthemaceae Burnett, famille aujourd'hui négligée dans les nomenclatures modernes et démembrée en deux sous-familles (Mesembryanthemoideae et Ruschioideae) des Aizoaceae. Mentionnons également la petite famille des Tetragoniaceae (famille de la tétragone, une plante potagère consommée comme l'épinard), qui est aujourd'hui considérée comme une sous-famille (Tetragonioideae) des Aizoaceae.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des membres de cette famille sont des plantes xérophytes à succulence plus ou moins marquée.
 Si la prise en compte des Mesembryanthemaceae en tant que famille est aujourd'hui obsolète d'un point de vue de la stricte botanique nomenclaturale, elle ne l'est pas d'un point de vue horticole. En effet, ce groupe (familièrement dénommé les « mésembs ») est très apprécié des amateurs de plantes succulentes, certains passionnés leur portant même un intérêt monothématique pour ne pas dire monomaniaque... Les Mesembryanthemoideae étant essentiellement des plantes herbacées annuelles, c'est surtout la sous-famille des Ruschioideae qui constitue à la fois le groupe le plus important, le plus diversifié, le plus spécialisé et le plus apprécié des nombreux amateurs de « mésembs ».
@@ -610,9 +628,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 avr. 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 avr. 2010) :
 genre Acrodon N.E.Br.
 genre Acrosanthes Eckl. &amp; Zeyh.
 genre Aethephyllum N.E.Br.
@@ -714,7 +734,7 @@
 genre Wooleya L.Bolus
 genre Zaleya Burm.f.
 genre Zeuktophyllum N.E.Br.
-Selon DELTA Angio           (30 avr. 2010)[3] :
+Selon DELTA Angio           (30 avr. 2010) :
 genre Acrodon
 genre Acrosanthes
 genre Aethephyllum
@@ -841,7 +861,7 @@
 genre Wooleya
 genre Zaleya
 genre Zeuktophyllum
-Selon ITIS      (30 avr. 2010)[4] :
+Selon ITIS      (30 avr. 2010) :
 genre Aptenia  N.E. Br.
 genre Carpobrotus  N.E. Br.
 genre Conicosia  N.R. Br.
